--- a/data/Household_living_conditions_Survey/data.xlsx
+++ b/data/Household_living_conditions_Survey/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,118 +24,118 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Kachin 36.1 67.8 59.9 25.6 54.7 43.0</t>
-  </si>
-  <si>
-    <t>(4.0) (3.4) (4.0) (7.7) (6.8) (5.1)</t>
-  </si>
-  <si>
-    <t>Kayah 45.9 79.1 76.3 50.5 56.5 54.8</t>
-  </si>
-  <si>
-    <t>(4.0) (4.8) (3.8) (6.1) (8.1) (7.6)</t>
-  </si>
-  <si>
-    <t>Kayin 71.4 68.3 68.7 26.6 57.6 54.6</t>
-  </si>
-  <si>
-    <t>(9.9) (5.0) (3.1) (4.8) (4.1) (2.4)</t>
-  </si>
-  <si>
-    <t>Chin 83.2 77.7 81.4 73.0 86.9 77.4</t>
-  </si>
-  <si>
-    <t>(2.9) (8.8) (5.0) (1.6) (6.7) (2.7)</t>
-  </si>
-  <si>
-    <t>Sagaing 24.0 47.7 44.7 19.5 40.7 35.9</t>
-  </si>
-  <si>
-    <t>(3.6) (3.0) (2.6) (3.1) (4.2) (3.6)</t>
-  </si>
-  <si>
-    <t>Tanintharyi 11.0 35.6 28.6 4.9 23.5 18.2</t>
-  </si>
-  <si>
-    <t>(4.1) (7.8) (7.4) (2.1) (6.7) (5.9)</t>
-  </si>
-  <si>
-    <t>Bago 22.6 48.3 44.4 18.5 40.9 35.0</t>
-  </si>
-  <si>
-    <t>(2.7) (4.5) (4.0) (1.0) (4.9) (4.2)</t>
-  </si>
-  <si>
-    <t>- Bago (E) 27.4 43.1 40.6 18.0 36.5 31.7</t>
-  </si>
-  <si>
-    <t>(3.6) (4.0) (3.5) (1.6) (1.3) (1.7)</t>
-  </si>
-  <si>
-    <t>- Bago (W) 16.7 53.6 48.5 19.0 45.6 38.5</t>
-  </si>
-  <si>
-    <t>(3.8) (7.9) (7.2) (1.4) (9.9) (8.5)</t>
-  </si>
-  <si>
-    <t>Magwe 10.6 43.2 35.7 13.5 26.5 21.6</t>
-  </si>
-  <si>
-    <t>(2.5) (4.4) (4.0) (2.3) (4.9) (3.6)</t>
-  </si>
-  <si>
-    <t>Mandalay 39.8 62.0 57.0 30.9 52.3 45.0</t>
-  </si>
-  <si>
-    <t>(5.6) (3.7) (4.2) (6.7) (3.3) (4.4)</t>
-  </si>
-  <si>
-    <t>Mon 37.9 66.2 62.3 36.4 52.8 50.0</t>
-  </si>
-  <si>
-    <t>(9.7) (7.2) (7.8) (7.2) (11.3) (9.6)</t>
-  </si>
-  <si>
-    <t>Rakhine 5.0 28.1 19.6 9.9 19.6 16.4</t>
-  </si>
-  <si>
-    <t>(2.9) (9.2) (8.5) (5.9) (10.8) (9.1)</t>
-  </si>
-  <si>
-    <t>Yangon 57.3 89.6 85.5 50.9 83.5 79.5</t>
-  </si>
-  <si>
-    <t>(12.1) (4.7) (6.2) (13.5) (3.5) (6.3)</t>
-  </si>
-  <si>
-    <t>Shan 73.2 77.2 76.1 58.4 73.5 67.3</t>
-  </si>
-  <si>
-    <t>(3.1) (6.7) (5.3) (5.4) (6.9) (6.3)</t>
-  </si>
-  <si>
-    <t>- Shan (S) 66.0 73.3 71.8 54.5 73.1 66.9</t>
-  </si>
-  <si>
-    <t>(3.1) (13.7) (11.3) (7.4) (13.6) (13.7)</t>
-  </si>
-  <si>
-    <t>- Shan (N) 76.4 80.6 79.1 61.0 70.8 66.2</t>
-  </si>
-  <si>
-    <t>(4.2) (1.9) (1.3) (7.8) (3.0) (2.9)</t>
-  </si>
-  <si>
-    <t>- Shan (E) 76.6 83.5 80.8 59.5 83.8 72.6</t>
-  </si>
-  <si>
-    <t>(10.6) (7.0) (8.2) (10.0) (3.4) (8.2)</t>
-  </si>
-  <si>
-    <t>Ayeyarwady 19.0 46.5 39.0 20.5 40.2 35.1</t>
-  </si>
-  <si>
-    <t>(2.2) (3.0) (3.5) (4.7) (5.3) (4.9)</t>
+    <t>Kachin 80.7 92.9 95.9 87.0 89.4 83.9</t>
+  </si>
+  <si>
+    <t>(6.0) (3.2) (1.8) (3.8) (4.1) (6.3)</t>
+  </si>
+  <si>
+    <t>Kayah 77.3 89.4 91.8 85.9 88.0 88.5</t>
+  </si>
+  <si>
+    <t>(4.9) (0.5) (4.8) (1.7) (1.1) (4.6)</t>
+  </si>
+  <si>
+    <t>Kayin 77.8 77.2 80.3 76.7 77.3 55.4</t>
+  </si>
+  <si>
+    <t>(13.0) (4.0) (1.4) (6.8) (5.5) (2.5)</t>
+  </si>
+  <si>
+    <t>Chin 99.5 99.4 100.0 99.3 99.4 77.0</t>
+  </si>
+  <si>
+    <t>(0.6) (0.7) (0.0) (0.8) (0.6) (6.6)</t>
+  </si>
+  <si>
+    <t>Sagaing 64.9 74.2 78.6 71.8 72.8 59.9</t>
+  </si>
+  <si>
+    <t>(5.4) (2.1) (3.6) (2.6) (2.6) (4.4)</t>
+  </si>
+  <si>
+    <t>Tanintharyi 55.6 56.7 56.8 56.2 56.4 53.5</t>
+  </si>
+  <si>
+    <t>(13.6) (11.1) (12.2) (12.0) (11.6) (7.6)</t>
+  </si>
+  <si>
+    <t>Bago 81.9 81.2 87.1 80.4 81.3 65.8</t>
+  </si>
+  <si>
+    <t>(7.8) (6.0) (9.8) (5.6) (6.2) (7.6)</t>
+  </si>
+  <si>
+    <t>(5.3) (4.9) (0.3) (5.0) (4.8) (4.5)</t>
+  </si>
+  <si>
+    <t>(15.1) (9.8) (18.2) (9.7) (10.6) (7.0)</t>
+  </si>
+  <si>
+    <t>Magwe 64.4 61.9 85.3 60.2 62.6 56.8</t>
+  </si>
+  <si>
+    <t>(5.4) (6.7) (6.0) (5.9) (5.6) (8.5)</t>
+  </si>
+  <si>
+    <t>Mandalay 67.7 79.4 88.2 71.5 76.3 75.5</t>
+  </si>
+  <si>
+    <t>(8.2) (4.0) (2.9) (5.8) (4.8) (3.9)</t>
+  </si>
+  <si>
+    <t>Mon 65.2 82.8 82.1 79.4 79.9 86.6</t>
+  </si>
+  <si>
+    <t>(9.6) (4.7) (2.4) (6.5) (5.6) (2.3)</t>
+  </si>
+  <si>
+    <t>Rakhine 42.6 54.9 73.7 43.2 49.5 41.4</t>
+  </si>
+  <si>
+    <t>(15.7) (12.2) (3.8) (12.4) (14.0) (14.8)</t>
+  </si>
+  <si>
+    <t>Yangon 57.6 80.3 81.8 61.0 76.7 86.1</t>
+  </si>
+  <si>
+    <t>(14.2) (6.3) (5.6) (18.1) (6.9) (6.3)</t>
+  </si>
+  <si>
+    <t>Shan 81.3 84.0 91.2 80.6 83.1 65.1</t>
+  </si>
+  <si>
+    <t>(3.8) (2.6) (2.8) (3.5) (2.8) (8.3)</t>
+  </si>
+  <si>
+    <t>(1.5) (1.9) (4.3) (1.7) (1.5) (19.2)</t>
+  </si>
+  <si>
+    <t>(6.3) (3.9) (2.7) (5.1) (4.5) (9.4)</t>
+  </si>
+  <si>
+    <t>(6.2) (2.4) (1.7) (5.1) (4.2) (11.0)</t>
+  </si>
+  <si>
+    <t>Bago (E) 92.2 90.8 99.7 89.6 91.1 73.1</t>
+  </si>
+  <si>
+    <t>Bago (W) 65.3 69.8 64.6 69.6 69.1 55.8</t>
+  </si>
+  <si>
+    <t>Shan (S) 83.3 85.7 88.3 84.0 85.1 52.8</t>
+  </si>
+  <si>
+    <t>Shan (N) 76.8 79.2 93.0 74.3 78.3 74.4</t>
+  </si>
+  <si>
+    <t>Shan (E) 89.9 94.5 96.8 91.0 92.4 75.8</t>
+  </si>
+  <si>
+    <t>Ayeyarwaddy 44.1 44.9 61.3 41.5 44.6 36.1</t>
+  </si>
+  <si>
+    <t>(7.0) (3.0) (5.9) (5.3) (4.1) (5.3)</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A40:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -624,112 +624,112 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:1">

--- a/data/Household_living_conditions_Survey/data.xlsx
+++ b/data/Household_living_conditions_Survey/data.xlsx
@@ -24,118 +24,118 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Kachin 80.7 92.9 95.9 87.0 89.4 83.9</t>
-  </si>
-  <si>
-    <t>(6.0) (3.2) (1.8) (3.8) (4.1) (6.3)</t>
-  </si>
-  <si>
-    <t>Kayah 77.3 89.4 91.8 85.9 88.0 88.5</t>
-  </si>
-  <si>
-    <t>(4.9) (0.5) (4.8) (1.7) (1.1) (4.6)</t>
-  </si>
-  <si>
-    <t>Kayin 77.8 77.2 80.3 76.7 77.3 55.4</t>
-  </si>
-  <si>
-    <t>(13.0) (4.0) (1.4) (6.8) (5.5) (2.5)</t>
-  </si>
-  <si>
-    <t>Chin 99.5 99.4 100.0 99.3 99.4 77.0</t>
-  </si>
-  <si>
-    <t>(0.6) (0.7) (0.0) (0.8) (0.6) (6.6)</t>
-  </si>
-  <si>
-    <t>Sagaing 64.9 74.2 78.6 71.8 72.8 59.9</t>
-  </si>
-  <si>
-    <t>(5.4) (2.1) (3.6) (2.6) (2.6) (4.4)</t>
-  </si>
-  <si>
-    <t>Tanintharyi 55.6 56.7 56.8 56.2 56.4 53.5</t>
-  </si>
-  <si>
-    <t>(13.6) (11.1) (12.2) (12.0) (11.6) (7.6)</t>
-  </si>
-  <si>
-    <t>Bago 81.9 81.2 87.1 80.4 81.3 65.8</t>
-  </si>
-  <si>
-    <t>(7.8) (6.0) (9.8) (5.6) (6.2) (7.6)</t>
-  </si>
-  <si>
-    <t>(5.3) (4.9) (0.3) (5.0) (4.8) (4.5)</t>
-  </si>
-  <si>
-    <t>(15.1) (9.8) (18.2) (9.7) (10.6) (7.0)</t>
-  </si>
-  <si>
-    <t>Magwe 64.4 61.9 85.3 60.2 62.6 56.8</t>
-  </si>
-  <si>
-    <t>(5.4) (6.7) (6.0) (5.9) (5.6) (8.5)</t>
-  </si>
-  <si>
-    <t>Mandalay 67.7 79.4 88.2 71.5 76.3 75.5</t>
-  </si>
-  <si>
-    <t>(8.2) (4.0) (2.9) (5.8) (4.8) (3.9)</t>
-  </si>
-  <si>
-    <t>Mon 65.2 82.8 82.1 79.4 79.9 86.6</t>
-  </si>
-  <si>
-    <t>(9.6) (4.7) (2.4) (6.5) (5.6) (2.3)</t>
-  </si>
-  <si>
-    <t>Rakhine 42.6 54.9 73.7 43.2 49.5 41.4</t>
-  </si>
-  <si>
-    <t>(15.7) (12.2) (3.8) (12.4) (14.0) (14.8)</t>
-  </si>
-  <si>
-    <t>Yangon 57.6 80.3 81.8 61.0 76.7 86.1</t>
-  </si>
-  <si>
-    <t>(14.2) (6.3) (5.6) (18.1) (6.9) (6.3)</t>
-  </si>
-  <si>
-    <t>Shan 81.3 84.0 91.2 80.6 83.1 65.1</t>
-  </si>
-  <si>
-    <t>(3.8) (2.6) (2.8) (3.5) (2.8) (8.3)</t>
-  </si>
-  <si>
-    <t>(1.5) (1.9) (4.3) (1.7) (1.5) (19.2)</t>
-  </si>
-  <si>
-    <t>(6.3) (3.9) (2.7) (5.1) (4.5) (9.4)</t>
-  </si>
-  <si>
-    <t>(6.2) (2.4) (1.7) (5.1) (4.2) (11.0)</t>
-  </si>
-  <si>
-    <t>Bago (E) 92.2 90.8 99.7 89.6 91.1 73.1</t>
-  </si>
-  <si>
-    <t>Bago (W) 65.3 69.8 64.6 69.6 69.1 55.8</t>
-  </si>
-  <si>
-    <t>Shan (S) 83.3 85.7 88.3 84.0 85.1 52.8</t>
-  </si>
-  <si>
-    <t>Shan (N) 76.8 79.2 93.0 74.3 78.3 74.4</t>
-  </si>
-  <si>
-    <t>Shan (E) 89.9 94.5 96.8 91.0 92.4 75.8</t>
-  </si>
-  <si>
-    <t>Ayeyarwaddy 44.1 44.9 61.3 41.5 44.6 36.1</t>
-  </si>
-  <si>
-    <t>(7.0) (3.0) (5.9) (5.3) (4.1) (5.3)</t>
+    <t>Kachin 0.75 0.81 0.95 0.74 0.80 0.70 13.0</t>
+  </si>
+  <si>
+    <t>(0.05) (0.06) (0.16) (0.06) (0.05) (0.04)</t>
+  </si>
+  <si>
+    <t>Kayah 0.61 0.53 0.65 0.47 0.54 0.55 -1.8</t>
+  </si>
+  <si>
+    <t>(0.14) (0.07) (0.03) (0.09) (0.08) (0.03)</t>
+  </si>
+  <si>
+    <t>Kayin 0.56 0.69 0.66 0.66 0.66 0.65 2.0</t>
+  </si>
+  <si>
+    <t>(0.06) (0.03) (0.14) (0.01) (0.02) (0.03)</t>
+  </si>
+  <si>
+    <t>Chin 0.52 0.64 0.86 0.47 0.55 0.63 -12.1</t>
+  </si>
+  <si>
+    <t>(0.05) (0.10) (0.02) (0.03) (0.06) (0.13)</t>
+  </si>
+  <si>
+    <t>Sagaing 0.52 0.57 0.73 0.54 0.57 0.61 -7.2</t>
+  </si>
+  <si>
+    <t>(0.03) (0.02) (0.03) (0.01) (0.02) (0.03)</t>
+  </si>
+  <si>
+    <t>Tanintharyi 0.73 0.77 0.89 0.72 0.76 0.76 -1.0</t>
+  </si>
+  <si>
+    <t>(0.07) (0.05) (0.04) (0.04) (0.04) (0.01)</t>
+  </si>
+  <si>
+    <t>Bago 0.55 0.62 0.80 0.58 0.60 0.54 11.5</t>
+  </si>
+  <si>
+    <t>(0.06) (0.06) (0.03) (0.06) (0.05) (0.05)</t>
+  </si>
+  <si>
+    <t>- Bago (E) 0.58 0.73 0.83 0.68 0.70 0.58 22.0</t>
+  </si>
+  <si>
+    <t>(0.04) (0.01) (0.04) (0.02) (0.01) (0.02)</t>
+  </si>
+  <si>
+    <t>- Bago (W) 0.50 0.50 0.75 0.47 0.50 0.50 -0.5</t>
+  </si>
+  <si>
+    <t>(0.14) (0.06) (0.02) (0.07) (0.07) (0.12)</t>
+  </si>
+  <si>
+    <t>Magwe 0.46 0.49 0.79 0.46 0.48 0.51 -4.7</t>
+  </si>
+  <si>
+    <t>(0.01) (0.01) (0.06) (0.01) (0.01) (0.03)</t>
+  </si>
+  <si>
+    <t>Mandalay 0.50 0.66 0.83 0.54 0.61 0.62 -0.5</t>
+  </si>
+  <si>
+    <t>(0.03) (0.04) (0.05) (0.02) (0.03) (0.03)</t>
+  </si>
+  <si>
+    <t>Mon 0.68 0.76 0.79 0.73 0.74 0.80 -6.5</t>
+  </si>
+  <si>
+    <t>(0.05) (0.07) (0.03) (0.09) (0.07) (0.03)</t>
+  </si>
+  <si>
+    <t>Rakhine 1.17 1.03 1.08 1.09 1.09 1.00 8.4</t>
+  </si>
+  <si>
+    <t>(0.05) (0.06) (0.01) (0.06) (0.04) (0.06)</t>
+  </si>
+  <si>
+    <t>Yangon 0.89 0.96 1.01 0.78 0.95 0.93 1.8</t>
+  </si>
+  <si>
+    <t>(0.11) (0.04) (0.05) (0.07) (0.05) (0.05)</t>
+  </si>
+  <si>
+    <t>Shan 0.41 0.47 0.63 0.39 0.45 0.43 4.9</t>
+  </si>
+  <si>
+    <t>(0.05) (0.03) (0.04) (0.04) (0.03) (0.03)</t>
+  </si>
+  <si>
+    <t>- Shan (S) 0.47 0.47 0.59 0.43 0.47 0.46 2.0</t>
+  </si>
+  <si>
+    <t>(0.08) (0.02) (0.02) (0.08) (0.04) (0.04)</t>
+  </si>
+  <si>
+    <t>- Shan (N) 0.38 0.47 0.73 0.37 0.43 0.39 9.8</t>
+  </si>
+  <si>
+    <t>(0.03) (0.04) (0.07) (0.03) (0.05) (0.05)</t>
+  </si>
+  <si>
+    <t>- Shan (E) 0.39 0.43 0.56 0.36 0.41 0.41 -0.5</t>
+  </si>
+  <si>
+    <t>(0.07) (0.09) (0.07) (0.06) (0.08) (0.09)</t>
+  </si>
+  <si>
+    <t>Ayeyarwaddy 0.66 0.72 0.79 0.68 0.70 0.60 15.2</t>
+  </si>
+  <si>
+    <t>(0.03) (0.04) (0.05) (0.04) (0.03) (0.03)</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -624,112 +624,112 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">

--- a/data/Household_living_conditions_Survey/data.xlsx
+++ b/data/Household_living_conditions_Survey/data.xlsx
@@ -24,118 +24,118 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Kachin 0.75 0.81 0.95 0.74 0.80 0.70 13.0</t>
-  </si>
-  <si>
-    <t>(0.05) (0.06) (0.16) (0.06) (0.05) (0.04)</t>
-  </si>
-  <si>
-    <t>Kayah 0.61 0.53 0.65 0.47 0.54 0.55 -1.8</t>
-  </si>
-  <si>
-    <t>(0.14) (0.07) (0.03) (0.09) (0.08) (0.03)</t>
-  </si>
-  <si>
-    <t>Kayin 0.56 0.69 0.66 0.66 0.66 0.65 2.0</t>
-  </si>
-  <si>
-    <t>(0.06) (0.03) (0.14) (0.01) (0.02) (0.03)</t>
-  </si>
-  <si>
-    <t>Chin 0.52 0.64 0.86 0.47 0.55 0.63 -12.1</t>
-  </si>
-  <si>
-    <t>(0.05) (0.10) (0.02) (0.03) (0.06) (0.13)</t>
-  </si>
-  <si>
-    <t>Sagaing 0.52 0.57 0.73 0.54 0.57 0.61 -7.2</t>
-  </si>
-  <si>
-    <t>(0.03) (0.02) (0.03) (0.01) (0.02) (0.03)</t>
-  </si>
-  <si>
-    <t>Tanintharyi 0.73 0.77 0.89 0.72 0.76 0.76 -1.0</t>
-  </si>
-  <si>
-    <t>(0.07) (0.05) (0.04) (0.04) (0.04) (0.01)</t>
-  </si>
-  <si>
-    <t>Bago 0.55 0.62 0.80 0.58 0.60 0.54 11.5</t>
-  </si>
-  <si>
-    <t>(0.06) (0.06) (0.03) (0.06) (0.05) (0.05)</t>
-  </si>
-  <si>
-    <t>- Bago (E) 0.58 0.73 0.83 0.68 0.70 0.58 22.0</t>
-  </si>
-  <si>
-    <t>(0.04) (0.01) (0.04) (0.02) (0.01) (0.02)</t>
-  </si>
-  <si>
-    <t>- Bago (W) 0.50 0.50 0.75 0.47 0.50 0.50 -0.5</t>
-  </si>
-  <si>
-    <t>(0.14) (0.06) (0.02) (0.07) (0.07) (0.12)</t>
-  </si>
-  <si>
-    <t>Magwe 0.46 0.49 0.79 0.46 0.48 0.51 -4.7</t>
-  </si>
-  <si>
-    <t>(0.01) (0.01) (0.06) (0.01) (0.01) (0.03)</t>
-  </si>
-  <si>
-    <t>Mandalay 0.50 0.66 0.83 0.54 0.61 0.62 -0.5</t>
-  </si>
-  <si>
-    <t>(0.03) (0.04) (0.05) (0.02) (0.03) (0.03)</t>
-  </si>
-  <si>
-    <t>Mon 0.68 0.76 0.79 0.73 0.74 0.80 -6.5</t>
-  </si>
-  <si>
-    <t>(0.05) (0.07) (0.03) (0.09) (0.07) (0.03)</t>
-  </si>
-  <si>
-    <t>Rakhine 1.17 1.03 1.08 1.09 1.09 1.00 8.4</t>
-  </si>
-  <si>
-    <t>(0.05) (0.06) (0.01) (0.06) (0.04) (0.06)</t>
-  </si>
-  <si>
-    <t>Yangon 0.89 0.96 1.01 0.78 0.95 0.93 1.8</t>
-  </si>
-  <si>
-    <t>(0.11) (0.04) (0.05) (0.07) (0.05) (0.05)</t>
-  </si>
-  <si>
-    <t>Shan 0.41 0.47 0.63 0.39 0.45 0.43 4.9</t>
-  </si>
-  <si>
-    <t>(0.05) (0.03) (0.04) (0.04) (0.03) (0.03)</t>
-  </si>
-  <si>
-    <t>- Shan (S) 0.47 0.47 0.59 0.43 0.47 0.46 2.0</t>
-  </si>
-  <si>
-    <t>(0.08) (0.02) (0.02) (0.08) (0.04) (0.04)</t>
-  </si>
-  <si>
-    <t>- Shan (N) 0.38 0.47 0.73 0.37 0.43 0.39 9.8</t>
-  </si>
-  <si>
-    <t>(0.03) (0.04) (0.07) (0.03) (0.05) (0.05)</t>
-  </si>
-  <si>
-    <t>- Shan (E) 0.39 0.43 0.56 0.36 0.41 0.41 -0.5</t>
-  </si>
-  <si>
-    <t>(0.07) (0.09) (0.07) (0.06) (0.08) (0.09)</t>
-  </si>
-  <si>
-    <t>Ayeyarwaddy 0.66 0.72 0.79 0.68 0.70 0.60 15.2</t>
-  </si>
-  <si>
-    <t>(0.03) (0.04) (0.05) (0.04) (0.03) (0.03)</t>
+    <t>Kachin 27.9 24.0 36.7 20.9 25.0 22.8</t>
+  </si>
+  <si>
+    <t>(3.1) (2.9) (2.4) (1.3) (1.8) (3.2)</t>
+  </si>
+  <si>
+    <t>Kayah 23.2 17.8 27.1 12.6 18.2 18.3</t>
+  </si>
+  <si>
+    <t>(1.8) (2.4) (6.8) (1.4) (2.3) (0.2)</t>
+  </si>
+  <si>
+    <t>Kayin 24.5 21.5 24.8 21.3 21.9 18.9</t>
+  </si>
+  <si>
+    <t>(3.5) (0.8) (2.5) (1.0) (1.0) (3.1)</t>
+  </si>
+  <si>
+    <t>Chin 13.6 16.4 7.8 16.9 14.6 10.4</t>
+  </si>
+  <si>
+    <t>(2.5) (2.4) (2.1) (4.3) (2.4) (1.7)</t>
+  </si>
+  <si>
+    <t>Sagaing 22.3 21.2 25.2 20.7 21.3 17.3</t>
+  </si>
+  <si>
+    <t>(4.1) (1.1) (2.2) (1.0) (0.9) (2.8)</t>
+  </si>
+  <si>
+    <t>Tanintharyi 24.5 20.5 18.5 22.5 21.6 20.2</t>
+  </si>
+  <si>
+    <t>(1.2) (3.0) (3.3) (2.9) (2.5) (0.7)</t>
+  </si>
+  <si>
+    <t>Bago 19.9 21.8 27.9 20.5 21.5 18.2</t>
+  </si>
+  <si>
+    <t>(4.5) (2.5) (4.8) (2.2) (2.3) (1.7)</t>
+  </si>
+  <si>
+    <t>- Bago (E) 24.7 26.7 34.8 24.8 26.4 21.0</t>
+  </si>
+  <si>
+    <t>(7.9) (2.8) (4.8) (2.5) (2.3) (2.7)</t>
+  </si>
+  <si>
+    <t>- Bago (W) 14.0 16.8 18.1 16.2 16.4 15.3</t>
+  </si>
+  <si>
+    <t>(2.6) (1.2) (1.8) (1.2) (1.0) (0.7)</t>
+  </si>
+  <si>
+    <t>Magwe 20.1 21.8 28.5 20.6 21.4 20.8</t>
+  </si>
+  <si>
+    <t>(2.2) (2.0) (2.1) (1.9) (1.8) (1.1)</t>
+  </si>
+  <si>
+    <t>Mandalay 18.3 23.7 27.3 20.6 22.5 20.9</t>
+  </si>
+  <si>
+    <t>(1.2) (2.1) (2.5) (2.0) (1.5) (1.6)</t>
+  </si>
+  <si>
+    <t>Mon 19.6 16.1 21.5 15.5 16.6 17.3</t>
+  </si>
+  <si>
+    <t>(6.0) (1.7) (2.1) (2.8) (2.3) (3.0)</t>
+  </si>
+  <si>
+    <t>Rakhine 18.8 20.9 22.6 19.4 20.1 19.5</t>
+  </si>
+  <si>
+    <t>(3.5) (1.7) (2.2) (2.0) (1.7) (1.3)</t>
+  </si>
+  <si>
+    <t>Yangon 19.0 26.1 28.4 16.1 25.2 24.4</t>
+  </si>
+  <si>
+    <t>(1.0) (1.2) (1.3) (2.0) (1.1) (2.4)</t>
+  </si>
+  <si>
+    <t>Shan 13.0 19.2 27.8 14.0 17.4 14.3</t>
+  </si>
+  <si>
+    <t>(2.5) (1.8) (4.0) (2.1) (1.9) (1.7)</t>
+  </si>
+  <si>
+    <t>- Shan (S) 7.1 16.4 22.1 11.5 14.6 11.1</t>
+  </si>
+  <si>
+    <t>(2.3) (3.0) (1.6) (3.5) (4.0) (2.1)</t>
+  </si>
+  <si>
+    <t>- Shan (N) 17.3 24.0 37.0 17.8 21.7 18.0</t>
+  </si>
+  <si>
+    <t>(1.9) (1.8) (5.1) (1.3) (2.1) (3.1)</t>
+  </si>
+  <si>
+    <t>- Shan (E) 10.6 13.8 26.5 8.5 12.5 12.8</t>
+  </si>
+  <si>
+    <t>(5.6) (4.1) (3.2) (3.3) (4.7) (3.9)</t>
+  </si>
+  <si>
+    <t>Ayeyarwaddy 16.4 17.1 21.8 15.9 16.9 14.3</t>
+  </si>
+  <si>
+    <t>(1.0) (0.5) (1.0) (0.5) (0.6) (</t>
   </si>
 </sst>
 </file>

--- a/data/Household_living_conditions_Survey/data.xlsx
+++ b/data/Household_living_conditions_Survey/data.xlsx
@@ -19,123 +19,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Kachin 27.9 24.0 36.7 20.9 25.0 22.8</t>
-  </si>
-  <si>
-    <t>(3.1) (2.9) (2.4) (1.3) (1.8) (3.2)</t>
-  </si>
-  <si>
-    <t>Kayah 23.2 17.8 27.1 12.6 18.2 18.3</t>
-  </si>
-  <si>
-    <t>(1.8) (2.4) (6.8) (1.4) (2.3) (0.2)</t>
-  </si>
-  <si>
-    <t>Kayin 24.5 21.5 24.8 21.3 21.9 18.9</t>
-  </si>
-  <si>
-    <t>(3.5) (0.8) (2.5) (1.0) (1.0) (3.1)</t>
-  </si>
-  <si>
-    <t>Chin 13.6 16.4 7.8 16.9 14.6 10.4</t>
-  </si>
-  <si>
-    <t>(2.5) (2.4) (2.1) (4.3) (2.4) (1.7)</t>
-  </si>
-  <si>
-    <t>Sagaing 22.3 21.2 25.2 20.7 21.3 17.3</t>
-  </si>
-  <si>
-    <t>(4.1) (1.1) (2.2) (1.0) (0.9) (2.8)</t>
-  </si>
-  <si>
-    <t>Tanintharyi 24.5 20.5 18.5 22.5 21.6 20.2</t>
-  </si>
-  <si>
-    <t>(1.2) (3.0) (3.3) (2.9) (2.5) (0.7)</t>
-  </si>
-  <si>
-    <t>Bago 19.9 21.8 27.9 20.5 21.5 18.2</t>
-  </si>
-  <si>
-    <t>(4.5) (2.5) (4.8) (2.2) (2.3) (1.7)</t>
-  </si>
-  <si>
-    <t>- Bago (E) 24.7 26.7 34.8 24.8 26.4 21.0</t>
-  </si>
-  <si>
-    <t>(7.9) (2.8) (4.8) (2.5) (2.3) (2.7)</t>
-  </si>
-  <si>
-    <t>- Bago (W) 14.0 16.8 18.1 16.2 16.4 15.3</t>
-  </si>
-  <si>
-    <t>(2.6) (1.2) (1.8) (1.2) (1.0) (0.7)</t>
-  </si>
-  <si>
-    <t>Magwe 20.1 21.8 28.5 20.6 21.4 20.8</t>
-  </si>
-  <si>
-    <t>(2.2) (2.0) (2.1) (1.9) (1.8) (1.1)</t>
-  </si>
-  <si>
-    <t>Mandalay 18.3 23.7 27.3 20.6 22.5 20.9</t>
-  </si>
-  <si>
-    <t>(1.2) (2.1) (2.5) (2.0) (1.5) (1.6)</t>
-  </si>
-  <si>
-    <t>Mon 19.6 16.1 21.5 15.5 16.6 17.3</t>
-  </si>
-  <si>
-    <t>(6.0) (1.7) (2.1) (2.8) (2.3) (3.0)</t>
-  </si>
-  <si>
-    <t>Rakhine 18.8 20.9 22.6 19.4 20.1 19.5</t>
-  </si>
-  <si>
-    <t>(3.5) (1.7) (2.2) (2.0) (1.7) (1.3)</t>
-  </si>
-  <si>
-    <t>Yangon 19.0 26.1 28.4 16.1 25.2 24.4</t>
-  </si>
-  <si>
-    <t>(1.0) (1.2) (1.3) (2.0) (1.1) (2.4)</t>
-  </si>
-  <si>
-    <t>Shan 13.0 19.2 27.8 14.0 17.4 14.3</t>
-  </si>
-  <si>
-    <t>(2.5) (1.8) (4.0) (2.1) (1.9) (1.7)</t>
-  </si>
-  <si>
-    <t>- Shan (S) 7.1 16.4 22.1 11.5 14.6 11.1</t>
-  </si>
-  <si>
-    <t>(2.3) (3.0) (1.6) (3.5) (4.0) (2.1)</t>
-  </si>
-  <si>
-    <t>- Shan (N) 17.3 24.0 37.0 17.8 21.7 18.0</t>
-  </si>
-  <si>
-    <t>(1.9) (1.8) (5.1) (1.3) (2.1) (3.1)</t>
-  </si>
-  <si>
-    <t>- Shan (E) 10.6 13.8 26.5 8.5 12.5 12.8</t>
-  </si>
-  <si>
-    <t>(5.6) (4.1) (3.2) (3.3) (4.7) (3.9)</t>
-  </si>
-  <si>
-    <t>Ayeyarwaddy 16.4 17.1 21.8 15.9 16.9 14.3</t>
-  </si>
-  <si>
-    <t>(1.0) (0.5) (1.0) (0.5) (0.6) (</t>
+    <t>Kachin 18.5 7.9 35.7 23.4 10.4 4.1 100.0</t>
+  </si>
+  <si>
+    <t>(2.7) (0.3) (3.5) (3.0) (1.5) (1.5)</t>
+  </si>
+  <si>
+    <t>Kayah 20.2 3.6 34.1 29.9 8.6 3.6 100.0</t>
+  </si>
+  <si>
+    <t>(2.9) (1.3) (11.1) (4.7) (2.5) (0.2)</t>
+  </si>
+  <si>
+    <t>Kayin 10.8 8.2 49.9 20.8 8.2 2.2 100.0</t>
+  </si>
+  <si>
+    <t>(3.4) (3.6) (6.2) (1.5) (0.5) (0.2)</t>
+  </si>
+  <si>
+    <t>Chin 14.0 0.0 46.3 23.5 12.5 3.7 100.0</t>
+  </si>
+  <si>
+    <t>(6.3) (0.0) (9.2) (2.6) (3.4) (2.1)</t>
+  </si>
+  <si>
+    <t>Sagaing 3.2 11.8 59.6 15.7 6.4 3.2 100.0</t>
+  </si>
+  <si>
+    <t>(0.9) (2.2) (3.6) (0.8) (0.9) (0.7)</t>
+  </si>
+  <si>
+    <t>Tanintharyi 8.9 15.4 48.2 17.4 8.4 1.7 100.0</t>
+  </si>
+  <si>
+    <t>(1.4) (1.5) (6.2) (5.3) (2.9) (0.6)</t>
+  </si>
+  <si>
+    <t>Bago 3.0 5.9 60.4 20.3 7.8 2.6 100.0</t>
+  </si>
+  <si>
+    <t>(1.2) (2.3) (3.2) (1.6) (0.7) (0.4)</t>
+  </si>
+  <si>
+    <t>‐ Bago (E) 4.9 7.1 54.2 22.3 8.1 3.3 100.0</t>
+  </si>
+  <si>
+    <t>(1.5) (2.5) (2.2) (1.6) (0.9) (0.2)</t>
+  </si>
+  <si>
+    <t>‐ Bago (W) 0.9 4.6 67.0 18.1 7.5 1.9 100.0</t>
+  </si>
+  <si>
+    <t>(0.5) (3.4) (0.9) (3.0) (1.4) (0.6)</t>
+  </si>
+  <si>
+    <t>Magwe 4.2 12.2 59.3 15.6 6.1 2.5 100.0</t>
+  </si>
+  <si>
+    <t>(1.4) (3.4) (7.5) (1.6) (1.8) (0.6)</t>
+  </si>
+  <si>
+    <t>Mandalay 6.7 13.2 46.1 20.8 9.3 4.0 100.0</t>
+  </si>
+  <si>
+    <t>(1.4) (3.9) (3.5) (1.1) (1.5) (0.8)</t>
+  </si>
+  <si>
+    <t>Mon 6.9 6.4 47.3 22.8 12.4 4.1 100.0</t>
+  </si>
+  <si>
+    <t>(1.7) (1.6) (0.7) (1.5) (0.4) (0.2)</t>
+  </si>
+  <si>
+    <t>Rakhine 16.7 14.4 37.0 17.5 10.7 3.7 100.0</t>
+  </si>
+  <si>
+    <t>(4.2) (4.2) (4.5) (0.8) (5.0) (1.5)</t>
+  </si>
+  <si>
+    <t>Yangon 4.0 4.0 27.2 27.6 26.4 10.7 100.0</t>
+  </si>
+  <si>
+    <t>(0.6) (0.7) (2.1) (1.2) (2.4) (1.5)</t>
+  </si>
+  <si>
+    <t>Shan 23.0 17.1 36.6 16.3 5.8 1.3 100.0</t>
+  </si>
+  <si>
+    <t>(3.9) (4.5) (3.2) (2.8) (1.3) (0.4)</t>
+  </si>
+  <si>
+    <t>‐ Shan (S) 18.3 8.9 42.7 22.5 6.6 1.0 100.0</t>
+  </si>
+  <si>
+    <t>(7.6) (0.5) (3.1) (1.4) (3.3) (0.2)</t>
+  </si>
+  <si>
+    <t>‐ Shan (N) 22.7 24.5 33.7 11.2 5.8 2.1 100.0</t>
+  </si>
+  <si>
+    <t>(5.0) (7.9) (5.7) (2.7) (1.3) (0.9)</t>
+  </si>
+  <si>
+    <t>‐ Shan (E) 41.3 21.1 23.9 11.2 2.4 0.0 100.0</t>
+  </si>
+  <si>
+    <t>(10.9) (5.7) (10.0) (2.9) (1.1) (0.0)</t>
+  </si>
+  <si>
+    <t>Ayeyarwaddy 2.4 5.6 58.3 20.9 9.4 3.4 100.0</t>
+  </si>
+  <si>
+    <t>(0.9) (1.2) (3.5) (0.5) (1.8) (1.3)</t>
+  </si>
+  <si>
+    <t>‐ Urban 4.9 3.8 28.4 27.1 24.2 11.6 100.0</t>
+  </si>
+  <si>
+    <t>(0.5) (0.5) (1.3) (0.8) (1.2) (1.1)</t>
+  </si>
+  <si>
+    <t>‐ Rural 7.8 11.5 55.3 17.8 6.1 1.4 100.0</t>
+  </si>
+  <si>
+    <t>(0.7) (1.1) (1.4) (0.4) (0.4) (0.1)</t>
+  </si>
+  <si>
+    <t>‐ Poor 12.5 13.3 52.8 15.9 4.7 0.7 100.0</t>
+  </si>
+  <si>
+    <t>(1.3) (1.6) (1.6) (0.6) (0.6) (0.2)</t>
+  </si>
+  <si>
+    <t>‐ Non Poor 5.6 8.4 46.9 21.5 12.6 5.1 100.0</t>
+  </si>
+  <si>
+    <t>(0.4) (0.9) (1.5) (0.5) (0.8) (0.4)</t>
   </si>
 </sst>
 </file>
@@ -536,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+      <selection activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -742,6 +766,46 @@
         <v>38</v>
       </c>
     </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
